--- a/data/trans_orig/P07B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F58150-DFD7-4B6C-8C10-43ADECFC0960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8989F67-0522-4B83-888E-A0C01CBE7E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0254432E-EE6D-46F2-9C64-B350E0AABF4D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECE33BB7-83B8-4AE7-9F61-4920D53D2326}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="194">
   <si>
     <t>Población según salud mental autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>Regular</t>
@@ -104,28 +104,28 @@
     <t>9,86%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>Buena</t>
@@ -134,28 +134,28 @@
     <t>51,83%</t>
   </si>
   <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
   </si>
   <si>
     <t>56,94%</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>54,93%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
   </si>
   <si>
     <t>Muy buena</t>
@@ -164,28 +164,28 @@
     <t>26,14%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>Excelente</t>
@@ -194,28 +194,28 @@
     <t>9,61%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,388 +227,394 @@
     <t>0,73%</t>
   </si>
   <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
   </si>
   <si>
     <t>46,88%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
   </si>
   <si>
     <t>45,67%</t>
   </si>
   <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
   </si>
   <si>
     <t>33,62%</t>
   </si>
   <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>15,68%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>13,71%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1023,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468E4AEC-E8B8-4495-A71A-1F672340E69D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DA1FC-422E-4DEB-9B5B-9AF90D03DFE4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1476,7 +1482,7 @@
         <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -1488,10 +1494,10 @@
         <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,13 +1512,13 @@
         <v>93350</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>212</v>
@@ -1521,13 +1527,13 @@
         <v>166174</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>302</v>
@@ -1536,13 +1542,13 @@
         <v>259523</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1563,13 @@
         <v>928318</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1320</v>
@@ -1572,13 +1578,13 @@
         <v>1021832</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2221</v>
@@ -1587,13 +1593,13 @@
         <v>1950150</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,28 +1614,28 @@
         <v>762772</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>1053</v>
       </c>
       <c r="I13" s="7">
-        <v>762831</v>
+        <v>762832</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>1771</v>
@@ -1638,13 +1644,13 @@
         <v>1525603</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1665,13 @@
         <v>361771</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
@@ -1674,13 +1680,13 @@
         <v>282448</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>581</v>
@@ -1689,13 +1695,13 @@
         <v>644220</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1728,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1751,7 +1757,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1769,13 @@
         <v>4432</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1778,13 +1784,13 @@
         <v>8019</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -1793,13 +1799,13 @@
         <v>12451</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1820,13 @@
         <v>35099</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -1829,13 +1835,13 @@
         <v>31397</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -1847,10 +1853,10 @@
         <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1871,13 @@
         <v>286955</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>423</v>
@@ -1880,13 +1886,13 @@
         <v>283300</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>731</v>
@@ -1895,13 +1901,13 @@
         <v>570256</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1922,13 @@
         <v>230793</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>371</v>
@@ -1931,13 +1937,13 @@
         <v>267390</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>607</v>
@@ -1946,13 +1952,13 @@
         <v>498184</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1973,13 @@
         <v>115759</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -1982,13 +1988,13 @@
         <v>123780</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>256</v>
@@ -1997,13 +2003,13 @@
         <v>239539</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2077,13 @@
         <v>34175</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>79</v>
@@ -2086,13 +2092,13 @@
         <v>51749</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -2101,13 +2107,13 @@
         <v>85924</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2194,13 @@
         <v>1781145</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>4112</v>
@@ -2203,13 +2209,13 @@
         <v>3277126</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2230,13 @@
         <v>1135145</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>1710</v>
@@ -2239,13 +2245,13 @@
         <v>1187328</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>2849</v>
@@ -2254,13 +2260,13 @@
         <v>2322473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2281,13 @@
         <v>529566</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>534</v>
@@ -2290,13 +2296,13 @@
         <v>454414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>961</v>
@@ -2305,13 +2311,13 @@
         <v>983979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2329,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2353,7 +2359,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2367,7 +2373,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P07B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8989F67-0522-4B83-888E-A0C01CBE7E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DEA70AC-5769-41E2-88D2-F8ADB99B6A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECE33BB7-83B8-4AE7-9F61-4920D53D2326}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74E5782E-C598-473A-80B4-8684D05084B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DA1FC-422E-4DEB-9B5B-9AF90D03DFE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B511DE-726A-4B19-ABC1-8AEA111ECDC1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P07B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DEA70AC-5769-41E2-88D2-F8ADB99B6A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D24476-2851-4071-A67B-DD5146A834AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74E5782E-C598-473A-80B4-8684D05084B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8952480E-E982-4F6C-A5E3-D83AC791278B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
   <si>
     <t>Población según salud mental autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>Regular</t>
@@ -104,28 +104,28 @@
     <t>9,86%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>Buena</t>
@@ -134,28 +134,28 @@
     <t>51,83%</t>
   </si>
   <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
   </si>
   <si>
     <t>56,94%</t>
   </si>
   <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
   </si>
   <si>
     <t>54,93%</t>
   </si>
   <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
   </si>
   <si>
     <t>Muy buena</t>
@@ -164,28 +164,28 @@
     <t>26,14%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>Excelente</t>
@@ -194,28 +194,28 @@
     <t>9,61%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,268 +227,274 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>1,4%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -497,124 +503,112 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>44,3%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
   </si>
   <si>
     <t>45,67%</t>
   </si>
   <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
   </si>
   <si>
     <t>33,62%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>15,68%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>13,71%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1029,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B511DE-726A-4B19-ABC1-8AEA111ECDC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA38FB66-0C5F-4030-837C-504B2CC71E22}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1482,7 +1476,7 @@
         <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -1494,10 +1488,10 @@
         <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,13 +1506,13 @@
         <v>93350</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>212</v>
@@ -1527,13 +1521,13 @@
         <v>166174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>302</v>
@@ -1542,13 +1536,13 @@
         <v>259523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1557,13 @@
         <v>928318</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1320</v>
@@ -1578,13 +1572,13 @@
         <v>1021832</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2221</v>
@@ -1593,13 +1587,13 @@
         <v>1950150</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,28 +1608,28 @@
         <v>762772</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>1053</v>
       </c>
       <c r="I13" s="7">
-        <v>762832</v>
+        <v>762831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>1771</v>
@@ -1644,13 +1638,13 @@
         <v>1525603</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1659,13 @@
         <v>361771</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
@@ -1680,13 +1674,13 @@
         <v>282448</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>581</v>
@@ -1695,13 +1689,13 @@
         <v>644220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1722,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1757,7 +1751,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1763,13 @@
         <v>4432</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1784,13 +1778,13 @@
         <v>8019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -1799,13 +1793,13 @@
         <v>12451</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1814,13 @@
         <v>35099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -1835,13 +1829,13 @@
         <v>31397</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -1853,10 +1847,10 @@
         <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1865,13 @@
         <v>286955</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>423</v>
@@ -1886,13 +1880,13 @@
         <v>283300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>731</v>
@@ -1901,13 +1895,13 @@
         <v>570256</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1916,13 @@
         <v>230793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>371</v>
@@ -1937,13 +1931,13 @@
         <v>267390</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>607</v>
@@ -1952,13 +1946,13 @@
         <v>498184</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1967,13 @@
         <v>115759</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -1988,13 +1982,13 @@
         <v>123780</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>256</v>
@@ -2003,13 +1997,13 @@
         <v>239539</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2071,13 @@
         <v>34175</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>79</v>
@@ -2092,13 +2086,13 @@
         <v>51749</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -2107,13 +2101,13 @@
         <v>85924</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2188,13 @@
         <v>1781145</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>4112</v>
@@ -2209,13 +2203,13 @@
         <v>3277126</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2224,13 @@
         <v>1135145</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>1710</v>
@@ -2245,13 +2239,13 @@
         <v>1187328</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>2849</v>
@@ -2260,13 +2254,13 @@
         <v>2322473</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2275,13 @@
         <v>529566</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>534</v>
@@ -2296,13 +2290,13 @@
         <v>454414</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>961</v>
@@ -2311,13 +2305,13 @@
         <v>983979</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2323,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2359,7 +2353,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2373,7 +2367,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P07B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D24476-2851-4071-A67B-DD5146A834AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41BCB596-3A00-4E36-AA7D-A5EBBA04CA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8952480E-E982-4F6C-A5E3-D83AC791278B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{530D64DB-02DF-475E-B164-6612886A4897}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
   <si>
     <t>Población según salud mental autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
@@ -71,151 +71,151 @@
     <t>Mala</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>Regular</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>Buena</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
   </si>
   <si>
     <t>Muy buena</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>Excelente</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -224,391 +224,400 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1023,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA38FB66-0C5F-4030-837C-504B2CC71E22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49D06E7-581A-48A0-B1B2-C7845FA9679A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1144,7 +1153,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>13931</v>
+        <v>12981</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1159,7 +1168,7 @@
         <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>27496</v>
+        <v>25014</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1174,7 +1183,7 @@
         <v>68</v>
       </c>
       <c r="N4" s="7">
-        <v>41427</v>
+        <v>37995</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1195,7 +1204,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>53380</v>
+        <v>49791</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1210,7 +1219,7 @@
         <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>127154</v>
+        <v>114473</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1225,7 +1234,7 @@
         <v>295</v>
       </c>
       <c r="N5" s="7">
-        <v>180533</v>
+        <v>164263</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1246,7 +1255,7 @@
         <v>355</v>
       </c>
       <c r="D6" s="7">
-        <v>280708</v>
+        <v>260526</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1261,7 +1270,7 @@
         <v>805</v>
       </c>
       <c r="I6" s="7">
-        <v>476012</v>
+        <v>426288</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1276,7 +1285,7 @@
         <v>1160</v>
       </c>
       <c r="N6" s="7">
-        <v>756720</v>
+        <v>686813</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1297,7 +1306,7 @@
         <v>185</v>
       </c>
       <c r="D7" s="7">
-        <v>141580</v>
+        <v>141323</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1312,7 +1321,7 @@
         <v>286</v>
       </c>
       <c r="I7" s="7">
-        <v>157106</v>
+        <v>146357</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1327,7 +1336,7 @@
         <v>471</v>
       </c>
       <c r="N7" s="7">
-        <v>298686</v>
+        <v>287681</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1348,7 +1357,7 @@
         <v>62</v>
       </c>
       <c r="D8" s="7">
-        <v>52035</v>
+        <v>50317</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1363,7 +1372,7 @@
         <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>48185</v>
+        <v>43376</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1378,7 +1387,7 @@
         <v>124</v>
       </c>
       <c r="N8" s="7">
-        <v>100220</v>
+        <v>93693</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1399,7 +1408,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1414,7 +1423,7 @@
         <v>1427</v>
       </c>
       <c r="I9" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1429,7 +1438,7 @@
         <v>2118</v>
       </c>
       <c r="N9" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1452,7 +1461,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>15811</v>
+        <v>14768</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1467,7 +1476,7 @@
         <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>16235</v>
+        <v>14710</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -1482,16 +1491,16 @@
         <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>32046</v>
+        <v>29478</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,46 +1512,46 @@
         <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>93350</v>
+        <v>89486</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>212</v>
       </c>
       <c r="I11" s="7">
-        <v>166174</v>
+        <v>206639</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>302</v>
       </c>
       <c r="N11" s="7">
-        <v>259523</v>
+        <v>296125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,46 +1563,46 @@
         <v>901</v>
       </c>
       <c r="D12" s="7">
-        <v>928318</v>
+        <v>1060605</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>1320</v>
       </c>
       <c r="I12" s="7">
-        <v>1021832</v>
+        <v>1023982</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>2221</v>
       </c>
       <c r="N12" s="7">
-        <v>1950150</v>
+        <v>2084588</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,46 +1614,46 @@
         <v>718</v>
       </c>
       <c r="D13" s="7">
-        <v>762772</v>
+        <v>750817</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>1053</v>
       </c>
       <c r="I13" s="7">
-        <v>762831</v>
+        <v>709083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>1771</v>
       </c>
       <c r="N13" s="7">
-        <v>1525603</v>
+        <v>1459900</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,46 +1665,46 @@
         <v>267</v>
       </c>
       <c r="D14" s="7">
-        <v>361771</v>
+        <v>374651</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
       </c>
       <c r="I14" s="7">
-        <v>282448</v>
+        <v>283409</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>581</v>
       </c>
       <c r="N14" s="7">
-        <v>644220</v>
+        <v>658059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,7 +1716,7 @@
         <v>1992</v>
       </c>
       <c r="D15" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1722,7 +1731,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1737,7 +1746,7 @@
         <v>4913</v>
       </c>
       <c r="N15" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1751,7 +1760,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1760,10 +1769,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>4432</v>
+        <v>4247</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>108</v>
@@ -1775,7 +1784,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>8019</v>
+        <v>6890</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -1790,16 +1799,16 @@
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>12451</v>
+        <v>11137</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,46 +1820,46 @@
         <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>35099</v>
+        <v>33711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>31397</v>
+        <v>29220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
       </c>
       <c r="N17" s="7">
-        <v>66496</v>
+        <v>62931</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,46 +1871,46 @@
         <v>308</v>
       </c>
       <c r="D18" s="7">
-        <v>286955</v>
+        <v>265274</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>423</v>
       </c>
       <c r="I18" s="7">
-        <v>283300</v>
+        <v>258003</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>731</v>
       </c>
       <c r="N18" s="7">
-        <v>570256</v>
+        <v>523277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,46 +1922,46 @@
         <v>236</v>
       </c>
       <c r="D19" s="7">
-        <v>230793</v>
+        <v>225167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>267390</v>
+        <v>250998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>607</v>
       </c>
       <c r="N19" s="7">
-        <v>498184</v>
+        <v>476165</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,46 +1973,46 @@
         <v>98</v>
       </c>
       <c r="D20" s="7">
-        <v>115759</v>
+        <v>118224</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
       </c>
       <c r="I20" s="7">
-        <v>123780</v>
+        <v>115352</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>256</v>
       </c>
       <c r="N20" s="7">
-        <v>239539</v>
+        <v>233576</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,7 +2024,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2030,7 +2039,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2045,7 +2054,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2068,46 +2077,46 @@
         <v>39</v>
       </c>
       <c r="D22" s="7">
-        <v>34175</v>
+        <v>31996</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>79</v>
       </c>
       <c r="I22" s="7">
-        <v>51749</v>
+        <v>46614</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
       </c>
       <c r="N22" s="7">
-        <v>85924</v>
+        <v>78610</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,46 +2128,46 @@
         <v>195</v>
       </c>
       <c r="D23" s="7">
-        <v>181828</v>
+        <v>172987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>481</v>
       </c>
       <c r="I23" s="7">
-        <v>324724</v>
+        <v>350332</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>676</v>
       </c>
       <c r="N23" s="7">
-        <v>506552</v>
+        <v>523319</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,46 +2179,46 @@
         <v>1564</v>
       </c>
       <c r="D24" s="7">
-        <v>1495981</v>
+        <v>1586406</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>2548</v>
       </c>
       <c r="I24" s="7">
-        <v>1781145</v>
+        <v>1708273</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>4112</v>
       </c>
       <c r="N24" s="7">
-        <v>3277126</v>
+        <v>3294679</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,46 +2230,46 @@
         <v>1139</v>
       </c>
       <c r="D25" s="7">
-        <v>1135145</v>
+        <v>1117308</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>1710</v>
       </c>
       <c r="I25" s="7">
-        <v>1187328</v>
+        <v>1106438</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>2849</v>
       </c>
       <c r="N25" s="7">
-        <v>2322473</v>
+        <v>2223746</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,46 +2281,46 @@
         <v>427</v>
       </c>
       <c r="D26" s="7">
-        <v>529566</v>
+        <v>543192</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>534</v>
       </c>
       <c r="I26" s="7">
-        <v>454414</v>
+        <v>442137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>961</v>
       </c>
       <c r="N26" s="7">
-        <v>983979</v>
+        <v>985329</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2332,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2338,7 +2347,7 @@
         <v>5352</v>
       </c>
       <c r="I27" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2353,7 +2362,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2367,7 +2376,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
